--- a/ListasDatos/Osorio Nicolas Marcelo Sabas_2021.xlsx
+++ b/ListasDatos/Osorio Nicolas Marcelo Sabas_2021.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="340">
   <si>
     <t>NC</t>
   </si>
@@ -245,7 +245,7 @@
     <t>marcosflow285@gmail.com</t>
   </si>
   <si>
-    <t>jesussamuelgarcialeon96@gmail.com</t>
+    <t>erikaleonpalacios7@gmail.com</t>
   </si>
   <si>
     <t>roger123459876@gmail.com</t>
@@ -392,7 +392,7 @@
     <t>MIGUEL ÁNGEL RAMÍREZ MORENO</t>
   </si>
   <si>
-    <t>GUADALUPE ITSEL TEPEPA ROSAS</t>
+    <t>GUADALUPE ITZEL TEPEPA ROSAS</t>
   </si>
   <si>
     <t>JUAN MANUEL CANTELLAN CARRERA</t>
@@ -425,7 +425,7 @@
     <t>KARINA BAEZA HERNÁNDEZ</t>
   </si>
   <si>
-    <t>MIRIAM MOLINA MORALES MOLINA MORALES</t>
+    <t>MIRIAM MOLINA MORALES</t>
   </si>
   <si>
     <t>ANTONIA ROCIO RODRÍGUEZ SANCHEZ</t>
@@ -494,6 +494,9 @@
     <t>manuel.flomat@hotmail.com</t>
   </si>
   <si>
+    <t>Kelly_rivera_vargas@gmail.com</t>
+  </si>
+  <si>
     <t>jesus_ramirez_flores@outlook.com</t>
   </si>
   <si>
@@ -773,7 +776,7 @@
     <t>josueyaminrs@gmail.com</t>
   </si>
   <si>
-    <t>arturombappe10@gamil.com</t>
+    <t>arturombappe10@gmail.com</t>
   </si>
   <si>
     <t>sanjuanneftali@gmail.com</t>
@@ -935,6 +938,9 @@
     <t>MARTIN SAN JUAN CORTES</t>
   </si>
   <si>
+    <t>AGUSTÍN SOLANO MARTÍNEZ</t>
+  </si>
+  <si>
     <t>JESUS VÁZQUEZ SANTIAGO</t>
   </si>
   <si>
@@ -942,9 +948,6 @@
   </si>
   <si>
     <t>lilianagarciaconche@gmail.com</t>
-  </si>
-  <si>
-    <t>Marielc</t>
   </si>
   <si>
     <t>rethorespinosa@gmail.com</t>
@@ -1459,7 +1462,7 @@
         <v>145</v>
       </c>
       <c r="J2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1491,7 +1494,7 @@
         <v>146</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1520,7 +1523,7 @@
         <v>147</v>
       </c>
       <c r="J4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1549,7 +1552,7 @@
         <v>148</v>
       </c>
       <c r="J5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1607,7 +1610,7 @@
         <v>149</v>
       </c>
       <c r="J7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1639,7 +1642,7 @@
         <v>150</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1668,7 +1671,7 @@
         <v>151</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1700,7 +1703,7 @@
         <v>152</v>
       </c>
       <c r="J10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1732,7 +1735,7 @@
         <v>153</v>
       </c>
       <c r="J11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1764,7 +1767,7 @@
         <v>80</v>
       </c>
       <c r="J12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1793,7 +1796,7 @@
         <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1822,7 +1825,7 @@
         <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1854,7 +1857,7 @@
         <v>156</v>
       </c>
       <c r="J15" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1886,7 +1889,7 @@
         <v>157</v>
       </c>
       <c r="J16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1918,7 +1921,7 @@
         <v>158</v>
       </c>
       <c r="J17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1947,7 +1950,7 @@
         <v>139</v>
       </c>
       <c r="J18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1972,8 +1975,11 @@
       <c r="H19" t="s">
         <v>140</v>
       </c>
+      <c r="I19" t="s">
+        <v>159</v>
+      </c>
       <c r="J19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2002,10 +2008,10 @@
         <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2034,10 +2040,10 @@
         <v>142</v>
       </c>
       <c r="I21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2069,7 +2075,7 @@
         <v>90</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2095,10 +2101,10 @@
         <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2160,28 +2166,28 @@
         <v>19330051920042</v>
       </c>
       <c r="B2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2189,28 +2195,28 @@
         <v>18330051920009</v>
       </c>
       <c r="B3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2218,25 +2224,25 @@
         <v>19330051920045</v>
       </c>
       <c r="B4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2244,28 +2250,28 @@
         <v>19330051920046</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2273,31 +2279,28 @@
         <v>19330051920049</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H6" t="s">
-        <v>289</v>
-      </c>
-      <c r="I6" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="J6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2305,31 +2308,31 @@
         <v>19330051920053</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2340,25 +2343,25 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2372,19 +2375,19 @@
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2395,28 +2398,28 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2424,31 +2427,31 @@
         <v>18330051920022</v>
       </c>
       <c r="B11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2459,25 +2462,25 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="I12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2491,22 +2494,22 @@
         <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2514,31 +2517,31 @@
         <v>19330051920050</v>
       </c>
       <c r="B14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H14" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2549,25 +2552,25 @@
         <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="I15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2575,31 +2578,31 @@
         <v>19330051920067</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2607,31 +2610,31 @@
         <v>19330051920068</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J17" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2639,28 +2642,28 @@
         <v>19330051920069</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="J18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2668,28 +2671,28 @@
         <v>19330051920074</v>
       </c>
       <c r="B19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2700,25 +2703,25 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J20" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2729,19 +2732,19 @@
         <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E21" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2749,31 +2752,31 @@
         <v>19330051920418</v>
       </c>
       <c r="B22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E22" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G22" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J22" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2781,19 +2784,22 @@
         <v>19330051920076</v>
       </c>
       <c r="B23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D23" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F23" t="s">
-        <v>277</v>
+        <v>278</v>
+      </c>
+      <c r="H23" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2807,25 +2813,25 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E24" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G24" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H24" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I24" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
